--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS2.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS2.xlsx
@@ -19,70 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="84">
-  <si>
-    <t>Signal_Value_3</t>
-  </si>
-  <si>
-    <t>Signal_Value_4</t>
-  </si>
-  <si>
-    <t>Signal_Value_5</t>
-  </si>
-  <si>
-    <t>Signal_Value_6</t>
-  </si>
-  <si>
-    <t>Signal_Value_7</t>
-  </si>
-  <si>
-    <t>Signal_Value_8</t>
-  </si>
-  <si>
-    <t>Signal_Value_9</t>
-  </si>
-  <si>
-    <t>Signal_Value_10</t>
-  </si>
-  <si>
-    <t>Signal_Value_11</t>
-  </si>
-  <si>
-    <t>Signal_Value_12</t>
-  </si>
-  <si>
-    <t>Signal_Value_13</t>
-  </si>
-  <si>
-    <t>Signal_Value_14</t>
-  </si>
-  <si>
-    <t>Signal_Value_15</t>
-  </si>
-  <si>
-    <t>Signal_Value_16</t>
-  </si>
-  <si>
-    <t>Signal_Value_17</t>
-  </si>
-  <si>
-    <t>Signal_Value_18</t>
-  </si>
-  <si>
-    <t>Signal_Value_19</t>
-  </si>
-  <si>
-    <t>Signal_Value_20</t>
-  </si>
-  <si>
-    <t>Signal_Value_21</t>
-  </si>
-  <si>
-    <t>Signal_Value_22</t>
-  </si>
-  <si>
-    <t>Signal_Value_23</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="127">
   <si>
     <t>Signal_Value_24</t>
   </si>
@@ -192,6 +129,201 @@
     <t>Signal_Value_59</t>
   </si>
   <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
+  <si>
+    <t>Signal_Value_89</t>
+  </si>
+  <si>
+    <t>Signal_Value_90</t>
+  </si>
+  <si>
+    <t>Signal_Value_91</t>
+  </si>
+  <si>
+    <t>Signal_Value_92</t>
+  </si>
+  <si>
+    <t>Signal_Value_93</t>
+  </si>
+  <si>
+    <t>Signal_Value_94</t>
+  </si>
+  <si>
+    <t>Signal_Value_95</t>
+  </si>
+  <si>
+    <t>Signal_Value_96</t>
+  </si>
+  <si>
+    <t>Signal_Value_97</t>
+  </si>
+  <si>
+    <t>Signal_Value_98</t>
+  </si>
+  <si>
+    <t>Signal_Value_99</t>
+  </si>
+  <si>
+    <t>Signal_Value_100</t>
+  </si>
+  <si>
+    <t>Signal_Value_101</t>
+  </si>
+  <si>
+    <t>Signal_Value_102</t>
+  </si>
+  <si>
+    <t>Signal_Value_103</t>
+  </si>
+  <si>
+    <t>Signal_Value_104</t>
+  </si>
+  <si>
+    <t>Signal_Value_105</t>
+  </si>
+  <si>
+    <t>Signal_Value_106</t>
+  </si>
+  <si>
+    <t>Signal_Value_107</t>
+  </si>
+  <si>
+    <t>Signal_Value_108</t>
+  </si>
+  <si>
+    <t>Signal_Value_109</t>
+  </si>
+  <si>
+    <t>Signal_Value_110</t>
+  </si>
+  <si>
+    <t>Signal_Value_111</t>
+  </si>
+  <si>
+    <t>Signal_Value_112</t>
+  </si>
+  <si>
+    <t>Signal_Value_113</t>
+  </si>
+  <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
+  </si>
+  <si>
+    <t>Signal_Value_124</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -264,10 +396,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -628,15 +757,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF6"/>
+  <dimension ref="A1:CX6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:102">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -809,10 +938,142 @@
       <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:102">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -821,100 +1082,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02775465335745482</v>
+        <v>0.1918440059828246</v>
       </c>
       <c r="E2">
-        <v>0.04299646842780542</v>
+        <v>0.01187090674385082</v>
       </c>
       <c r="F2">
-        <v>0.06472124683107766</v>
+        <v>0.006767919986504531</v>
       </c>
       <c r="G2">
-        <v>0.08128024212595428</v>
+        <v>0.09259055318535238</v>
       </c>
       <c r="H2">
-        <v>0.06574962502883798</v>
+        <v>0.1018446992785538</v>
       </c>
       <c r="I2">
-        <v>0.04426701684430774</v>
+        <v>0.03713905042190958</v>
       </c>
       <c r="J2">
-        <v>0.01875776210334938</v>
+        <v>0.0001198892824435184</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.000601688334732069</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08043482433055778</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09400818930299647</v>
       </c>
       <c r="N2">
-        <v>0.004473461127677101</v>
+        <v>0.002590804834863253</v>
       </c>
       <c r="O2">
-        <v>0.02440634791728365</v>
+        <v>0.001342365707937275</v>
       </c>
       <c r="P2">
-        <v>0.0443424767873349</v>
+        <v>0.04620721609094183</v>
       </c>
       <c r="Q2">
-        <v>0.04286447340533196</v>
+        <v>0.004188208725726611</v>
       </c>
       <c r="R2">
-        <v>0.03484712781398034</v>
+        <v>0.02535866383784045</v>
       </c>
       <c r="S2">
-        <v>0.0155058686378587</v>
+        <v>0.004689502840303451</v>
       </c>
       <c r="T2">
-        <v>0.00427383366903173</v>
+        <v>0.01535712471745719</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.01293556227471872</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.001139552642069004</v>
       </c>
       <c r="W2">
-        <v>0.0003426649932287777</v>
+        <v>0.0001569120419690103</v>
       </c>
       <c r="X2">
-        <v>0.001700785681991385</v>
+        <v>0.01528317485187218</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.0168286377265589</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.006579442090249323</v>
       </c>
       <c r="AA2">
-        <v>0.0126455553146446</v>
+        <v>0.01387388856692797</v>
       </c>
       <c r="AB2">
-        <v>0.04847526503095583</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.05442473257181378</v>
+        <v>5.200084016116182E-05</v>
       </c>
       <c r="AD2">
-        <v>0.03821733291745517</v>
+        <v>0.01016181591884429</v>
       </c>
       <c r="AE2">
-        <v>0.00199069813866528</v>
+        <v>0.03376721969601799</v>
       </c>
       <c r="AF2">
-        <v>0.005083086800161776</v>
+        <v>0.01227526170637249</v>
       </c>
       <c r="AG2">
-        <v>0.07357131418941226</v>
+        <v>0.006633881017088148</v>
       </c>
       <c r="AH2">
-        <v>0.116689165206561</v>
+        <v>0.0008651651708070322</v>
       </c>
       <c r="AI2">
-        <v>0.1306187950778245</v>
+        <v>0.1524918718515482</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -985,10 +1246,142 @@
       <c r="BF2">
         <v>0</v>
       </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:102">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1006,100 +1399,100 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.008253629493170735</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03263367070000849</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.05697975973688593</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05323254303141269</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02227603591156138</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0005798278043993141</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.003426182286565762</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.01539365645687224</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.02858745368097067</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.03835868798189139</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.03849349020774237</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0383839442547332</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.03647962491781292</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.03612739631582446</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.02233587986778611</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.006573713042555858</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.008741050784765602</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.02915586321435951</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0544976052061637</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.07431760602036883</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.08388737448776144</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.07185999348310135</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05002395424620386</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0230158186407763</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.001876407270988924</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002332238563701084</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.01608313533654867</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.03349627111063655</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.03978578453658028</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.03940952491008597</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.03340187649776433</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1161,10 +1554,142 @@
       <c r="BF3">
         <v>0</v>
       </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0.09644353524531164</v>
+      </c>
+      <c r="BT3">
+        <v>0.002251409983540926</v>
+      </c>
+      <c r="BU3">
+        <v>0.03094630711911794</v>
+      </c>
+      <c r="BV3">
+        <v>0.009587088004680248</v>
+      </c>
+      <c r="BW3">
+        <v>0.2287351795719733</v>
+      </c>
+      <c r="BX3">
+        <v>0.0607905292002669</v>
+      </c>
+      <c r="BY3">
+        <v>0.0001333486995585362</v>
+      </c>
+      <c r="BZ3">
+        <v>0.001257099877099783</v>
+      </c>
+      <c r="CA3">
+        <v>0.001713626343000257</v>
+      </c>
+      <c r="CB3">
+        <v>0.1786860760011713</v>
+      </c>
+      <c r="CC3">
+        <v>0.0337737971844527</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0.0337737971844527</v>
+      </c>
+      <c r="CF3">
+        <v>0.018708856461682</v>
+      </c>
+      <c r="CG3">
+        <v>0.02525135309529567</v>
+      </c>
+      <c r="CH3">
+        <v>6.267034220030207E-05</v>
+      </c>
+      <c r="CI3">
+        <v>0.001321532607331796</v>
+      </c>
+      <c r="CJ3">
+        <v>0.02837748522993062</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>6.546377390453123E-05</v>
+      </c>
+      <c r="CM3">
+        <v>0.009253815319968633</v>
+      </c>
+      <c r="CN3">
+        <v>0.02625431267453471</v>
+      </c>
+      <c r="CO3">
+        <v>0.0008180661638893731</v>
+      </c>
+      <c r="CP3">
+        <v>0.02078247909421051</v>
+      </c>
+      <c r="CQ3">
+        <v>0.000835684296490947</v>
+      </c>
+      <c r="CR3">
+        <v>0.01089426032233453</v>
+      </c>
+      <c r="CS3">
+        <v>0.006191591908507054</v>
+      </c>
+      <c r="CT3">
+        <v>0.0562278289873358</v>
+      </c>
+      <c r="CU3">
+        <v>0.0185786749002228</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0.01893906715281106</v>
+      </c>
+      <c r="CX3">
+        <v>0.07934506325472357</v>
+      </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:102">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1191,100 +1716,100 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02973153695140488</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05369438148089192</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06424993475966692</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.04325175275316388</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.01677237490141377</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.005252051094496149</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0008492474310708726</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001695538587310805</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.002211209880725087</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.002858060185609762</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.005030673648505059</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.006774674575155773</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.006909471377151819</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.006866776073167572</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.01539848272720778</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01532630070908476</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01667166847087085</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0225048296217104</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.04256720772575431</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.06259830504061634</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0857747850308055</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.09085709862103573</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.07394667563757701</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.04869669410667748</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01277817951532353</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.02139639133149447</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.04675661136368426</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0670927842818264</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.07311505695909486</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.05837124515750208</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1337,10 +1862,142 @@
       <c r="BF4">
         <v>0</v>
       </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0.0490952281834262</v>
+      </c>
+      <c r="BR4">
+        <v>0.06167011185021042</v>
+      </c>
+      <c r="BS4">
+        <v>0.03185103912415366</v>
+      </c>
+      <c r="BT4">
+        <v>0.01288420430412943</v>
+      </c>
+      <c r="BU4">
+        <v>0.1865696126718654</v>
+      </c>
+      <c r="BV4">
+        <v>0.09816720453697501</v>
+      </c>
+      <c r="BW4">
+        <v>0.02386706436669846</v>
+      </c>
+      <c r="BX4">
+        <v>0.0007110056240892842</v>
+      </c>
+      <c r="BY4">
+        <v>0.0528613820691952</v>
+      </c>
+      <c r="BZ4">
+        <v>0.1712856186279884</v>
+      </c>
+      <c r="CA4">
+        <v>0.01220029802938653</v>
+      </c>
+      <c r="CB4">
+        <v>0.0009227149313274583</v>
+      </c>
+      <c r="CC4">
+        <v>0.03623086476636412</v>
+      </c>
+      <c r="CD4">
+        <v>0.01354208527924529</v>
+      </c>
+      <c r="CE4">
+        <v>0.01429056642016225</v>
+      </c>
+      <c r="CF4">
+        <v>0.001279056436189801</v>
+      </c>
+      <c r="CG4">
+        <v>0.00315334133214805</v>
+      </c>
+      <c r="CH4">
+        <v>0.007987777884778479</v>
+      </c>
+      <c r="CI4">
+        <v>0.0002590078912798691</v>
+      </c>
+      <c r="CJ4">
+        <v>0.001181299480443425</v>
+      </c>
+      <c r="CK4">
+        <v>0.000727155264974828</v>
+      </c>
+      <c r="CL4">
+        <v>0.03621016305969675</v>
+      </c>
+      <c r="CM4">
+        <v>0.007458881961470145</v>
+      </c>
+      <c r="CN4">
+        <v>0.04056172508654534</v>
+      </c>
+      <c r="CO4">
+        <v>0.007474488272055964</v>
+      </c>
+      <c r="CP4">
+        <v>0.009507112699409766</v>
+      </c>
+      <c r="CQ4">
+        <v>0.002432967902855371</v>
+      </c>
+      <c r="CR4">
+        <v>0.03271790778918632</v>
+      </c>
+      <c r="CS4">
+        <v>0.0422771235176997</v>
+      </c>
+      <c r="CT4">
+        <v>0.00508227429911293</v>
+      </c>
+      <c r="CU4">
+        <v>0.00850127305946612</v>
+      </c>
+      <c r="CV4">
+        <v>0.02703944327747037</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:102">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1355,100 +2012,100 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0465588398188824</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.06369982446534789</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02460175951850271</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01682039850395664</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.04867529643937399</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06272932741775111</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.05713315405484365</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.03485720348409715</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.005158579958428261</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.01078739736119712</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.02210283682608429</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.03884773400654386</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.06969251234528598</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.07779907920348095</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.05889199083312277</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.02678975898262021</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.005267828340317361</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0016574811723036</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01686328999886225</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03925168593568824</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.04990863631447625</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.04838895990701551</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.04245743705892369</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.03844198893497534</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.03658605113503165</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.03541783359194784</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.01815257237850049</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.002460542012438566</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1513,10 +2170,142 @@
       <c r="BF5">
         <v>0</v>
       </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0.03787938289050278</v>
+      </c>
+      <c r="BR5">
+        <v>0.08548017795111686</v>
+      </c>
+      <c r="BS5">
+        <v>0.03993637127752674</v>
+      </c>
+      <c r="BT5">
+        <v>0.001119784095945142</v>
+      </c>
+      <c r="BU5">
+        <v>0.1276789147871212</v>
+      </c>
+      <c r="BV5">
+        <v>0.1451741504818569</v>
+      </c>
+      <c r="BW5">
+        <v>0.06005219640086784</v>
+      </c>
+      <c r="BX5">
+        <v>0.0001312406413590145</v>
+      </c>
+      <c r="BY5">
+        <v>0.002168929082713926</v>
+      </c>
+      <c r="BZ5">
+        <v>0.03677747112690186</v>
+      </c>
+      <c r="CA5">
+        <v>0.1313931777704143</v>
+      </c>
+      <c r="CB5">
+        <v>0.005231014435898613</v>
+      </c>
+      <c r="CC5">
+        <v>0.008097652075941137</v>
+      </c>
+      <c r="CD5">
+        <v>0.07805435640197461</v>
+      </c>
+      <c r="CE5">
+        <v>0.004993552972982617</v>
+      </c>
+      <c r="CF5">
+        <v>0.01085620026469816</v>
+      </c>
+      <c r="CG5">
+        <v>0.003602819021253971</v>
+      </c>
+      <c r="CH5">
+        <v>0.009788151065291417</v>
+      </c>
+      <c r="CI5">
+        <v>0.02607630104995274</v>
+      </c>
+      <c r="CJ5">
+        <v>0.004752004537302398</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0.06260034671404532</v>
+      </c>
+      <c r="CM5">
+        <v>0.01823656974984272</v>
+      </c>
+      <c r="CN5">
+        <v>0.02192689462229576</v>
+      </c>
+      <c r="CO5">
+        <v>0.0001921930783991177</v>
+      </c>
+      <c r="CP5">
+        <v>0.003069066536820634</v>
+      </c>
+      <c r="CQ5">
+        <v>0.003857998434889036</v>
+      </c>
+      <c r="CR5">
+        <v>0.008551535437351928</v>
+      </c>
+      <c r="CS5">
+        <v>0.03949921290828507</v>
+      </c>
+      <c r="CT5">
+        <v>0.008714992034245627</v>
+      </c>
+      <c r="CU5">
+        <v>0.01035827372474685</v>
+      </c>
+      <c r="CV5">
+        <v>0.003749068427455752</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:102">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1594,100 +2383,232 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.03123187077713994</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04141665660878647</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0519499184263146</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.05241427697666844</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.02689530214994092</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.006031168283336575</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.00042271473794717</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.003534858334158825</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.01044225230381085</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.02494647191244726</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.04173505350333961</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.06419072528503295</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.02137526035160177</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.009236938479695405</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.007456561321937415</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.00779184351976269</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.01850325685324876</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.05559113870680396</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.1124832476628244</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.09977005989169427</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.03137967543663497</v>
+        <v>0</v>
       </c>
       <c r="AX6">
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0260759874432446</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.05537075995125836</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.05358132199418845</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.04719455580791266</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.04479476375036737</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.03177333890734844</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.01495453714001724</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.007455483482535491</v>
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0.06514626363783615</v>
+      </c>
+      <c r="BR6">
+        <v>0.02798952522116302</v>
+      </c>
+      <c r="BS6">
+        <v>0.07616109060967031</v>
+      </c>
+      <c r="BT6">
+        <v>0.03592994355739744</v>
+      </c>
+      <c r="BU6">
+        <v>0.1719799615613716</v>
+      </c>
+      <c r="BV6">
+        <v>0.0740878082752848</v>
+      </c>
+      <c r="BW6">
+        <v>0.02598192052991571</v>
+      </c>
+      <c r="BX6">
+        <v>0.0009530901390349805</v>
+      </c>
+      <c r="BY6">
+        <v>0.0005901624917851874</v>
+      </c>
+      <c r="BZ6">
+        <v>0.05406700382411076</v>
+      </c>
+      <c r="CA6">
+        <v>0.07659736469200264</v>
+      </c>
+      <c r="CB6">
+        <v>0.0002592455115223036</v>
+      </c>
+      <c r="CC6">
+        <v>0.05759001211504539</v>
+      </c>
+      <c r="CD6">
+        <v>0.04113726996834307</v>
+      </c>
+      <c r="CE6">
+        <v>0.02237261096624179</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0.007601097198154366</v>
+      </c>
+      <c r="CH6">
+        <v>0.02880176638294267</v>
+      </c>
+      <c r="CI6">
+        <v>0.01608603259847423</v>
+      </c>
+      <c r="CJ6">
+        <v>0.0008494043171374797</v>
+      </c>
+      <c r="CK6">
+        <v>0.002359601827794528</v>
+      </c>
+      <c r="CL6">
+        <v>0.03822330341298533</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0.0171773262913527</v>
+      </c>
+      <c r="CO6">
+        <v>0.01803589966049831</v>
+      </c>
+      <c r="CP6">
+        <v>0.01245883685485645</v>
+      </c>
+      <c r="CQ6">
+        <v>0.01475515826142888</v>
+      </c>
+      <c r="CR6">
+        <v>0.03803768703628865</v>
+      </c>
+      <c r="CS6">
+        <v>0.04182076417552026</v>
+      </c>
+      <c r="CT6">
+        <v>5.665102904325655E-05</v>
+      </c>
+      <c r="CU6">
+        <v>0.01893647347708194</v>
+      </c>
+      <c r="CV6">
+        <v>0.0139567243757158</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1697,15 +2618,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF6"/>
+  <dimension ref="A1:CX6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:102">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1878,10 +2799,142 @@
       <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:102">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1890,872 +2943,1532 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02775465335745482</v>
+        <v>0.1918440059828246</v>
       </c>
       <c r="E2">
-        <v>0.07075112178526025</v>
+        <v>0.2037149127266754</v>
       </c>
       <c r="F2">
-        <v>0.1354723686163379</v>
+        <v>0.2104828327131799</v>
       </c>
       <c r="G2">
-        <v>0.2167526107422922</v>
+        <v>0.3030733858985323</v>
       </c>
       <c r="H2">
-        <v>0.2825022357711302</v>
+        <v>0.4049180851770861</v>
       </c>
       <c r="I2">
-        <v>0.3267692526154379</v>
+        <v>0.4420571355989957</v>
       </c>
       <c r="J2">
-        <v>0.3455270147187873</v>
+        <v>0.4421770248814392</v>
       </c>
       <c r="K2">
-        <v>0.3455270147187873</v>
+        <v>0.4427787132161712</v>
       </c>
       <c r="L2">
-        <v>0.3455270147187873</v>
+        <v>0.5232135375467291</v>
       </c>
       <c r="M2">
-        <v>0.3455270147187873</v>
+        <v>0.6172217268497255</v>
       </c>
       <c r="N2">
-        <v>0.3500004758464644</v>
+        <v>0.6198125316845888</v>
       </c>
       <c r="O2">
-        <v>0.374406823763748</v>
+        <v>0.6211548973925261</v>
       </c>
       <c r="P2">
-        <v>0.4187493005510829</v>
+        <v>0.6673621134834679</v>
       </c>
       <c r="Q2">
-        <v>0.4616137739564148</v>
+        <v>0.6715503222091944</v>
       </c>
       <c r="R2">
-        <v>0.4964609017703952</v>
+        <v>0.6969089860470349</v>
       </c>
       <c r="S2">
-        <v>0.5119667704082539</v>
+        <v>0.7015984888873383</v>
       </c>
       <c r="T2">
-        <v>0.5162406040772857</v>
+        <v>0.7169556136047955</v>
       </c>
       <c r="U2">
-        <v>0.5162406040772857</v>
+        <v>0.7298911758795142</v>
       </c>
       <c r="V2">
-        <v>0.5162406040772857</v>
+        <v>0.7310307285215832</v>
       </c>
       <c r="W2">
-        <v>0.5165832690705144</v>
+        <v>0.7311876405635522</v>
       </c>
       <c r="X2">
-        <v>0.5182840547525058</v>
+        <v>0.7464708154154244</v>
       </c>
       <c r="Y2">
-        <v>0.5182840547525058</v>
+        <v>0.7632994531419832</v>
       </c>
       <c r="Z2">
-        <v>0.5182840547525058</v>
+        <v>0.7698788952322325</v>
       </c>
       <c r="AA2">
-        <v>0.5309296100671504</v>
+        <v>0.7837527837991605</v>
       </c>
       <c r="AB2">
-        <v>0.5794048750981062</v>
+        <v>0.7837527837991605</v>
       </c>
       <c r="AC2">
-        <v>0.63382960766992</v>
+        <v>0.7838047846393217</v>
       </c>
       <c r="AD2">
-        <v>0.6720469405873752</v>
+        <v>0.7939666005581659</v>
       </c>
       <c r="AE2">
-        <v>0.6740376387260405</v>
+        <v>0.827733820254184</v>
       </c>
       <c r="AF2">
-        <v>0.6791207255262023</v>
+        <v>0.8400090819605565</v>
       </c>
       <c r="AG2">
-        <v>0.7526920397156145</v>
+        <v>0.8466429629776446</v>
       </c>
       <c r="AH2">
-        <v>0.8693812049221754</v>
+        <v>0.8475081281484517</v>
       </c>
       <c r="AI2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AK2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AM2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AN2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AR2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AS2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AT2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AU2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AV2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AX2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BA2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BD2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BE2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BF2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BG2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BH2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BI2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BK2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BL2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BM2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BN2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BO2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BP2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BR2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BS2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BT2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BU2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BV2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BW2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BX2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BY2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CA2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CB2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CC2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CD2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CE2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CF2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CG2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CH2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CI2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CK2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CL2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CM2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CN2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CO2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CP2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CQ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CR2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CS2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CT2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CU2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CV2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CW2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CX2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:102">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0.09644353524531164</v>
+      </c>
+      <c r="BT3">
+        <v>0.09869494522885257</v>
+      </c>
+      <c r="BU3">
+        <v>0.1296412523479705</v>
+      </c>
+      <c r="BV3">
+        <v>0.1392283403526507</v>
+      </c>
+      <c r="BW3">
+        <v>0.3679635199246241</v>
+      </c>
+      <c r="BX3">
+        <v>0.428754049124891</v>
+      </c>
+      <c r="BY3">
+        <v>0.4288873978244495</v>
+      </c>
+      <c r="BZ3">
+        <v>0.4301444977015493</v>
+      </c>
+      <c r="CA3">
+        <v>0.4318581240445495</v>
+      </c>
+      <c r="CB3">
+        <v>0.6105442000457209</v>
+      </c>
+      <c r="CC3">
+        <v>0.6443179972301736</v>
+      </c>
+      <c r="CD3">
+        <v>0.6443179972301736</v>
+      </c>
+      <c r="CE3">
+        <v>0.6780917944146263</v>
+      </c>
+      <c r="CF3">
+        <v>0.6968006508763083</v>
+      </c>
+      <c r="CG3">
+        <v>0.722052003971604</v>
+      </c>
+      <c r="CH3">
+        <v>0.7221146743138043</v>
+      </c>
+      <c r="CI3">
+        <v>0.7234362069211361</v>
+      </c>
+      <c r="CJ3">
+        <v>0.7518136921510667</v>
+      </c>
+      <c r="CK3">
+        <v>0.7518136921510667</v>
+      </c>
+      <c r="CL3">
+        <v>0.7518791559249712</v>
+      </c>
+      <c r="CM3">
+        <v>0.7611329712449398</v>
+      </c>
+      <c r="CN3">
+        <v>0.7873872839194745</v>
+      </c>
+      <c r="CO3">
+        <v>0.7882053500833639</v>
+      </c>
+      <c r="CP3">
+        <v>0.8089878291775744</v>
+      </c>
+      <c r="CQ3">
+        <v>0.8098235134740653</v>
+      </c>
+      <c r="CR3">
+        <v>0.8207177737963999</v>
+      </c>
+      <c r="CS3">
+        <v>0.8269093657049069</v>
+      </c>
+      <c r="CT3">
+        <v>0.8831371946922427</v>
+      </c>
+      <c r="CU3">
+        <v>0.9017158695924655</v>
+      </c>
+      <c r="CV3">
+        <v>0.9017158695924655</v>
+      </c>
+      <c r="CW3">
+        <v>0.9206549367452765</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:102">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0.0490952281834262</v>
+      </c>
+      <c r="BR4">
+        <v>0.1107653400336366</v>
+      </c>
+      <c r="BS4">
+        <v>0.1426163791577903</v>
+      </c>
+      <c r="BT4">
+        <v>0.1555005834619197</v>
+      </c>
+      <c r="BU4">
+        <v>0.3420701961337851</v>
+      </c>
+      <c r="BV4">
+        <v>0.4402374006707601</v>
+      </c>
+      <c r="BW4">
+        <v>0.4641044650374586</v>
+      </c>
+      <c r="BX4">
+        <v>0.4648154706615478</v>
+      </c>
+      <c r="BY4">
+        <v>0.517676852730743</v>
+      </c>
+      <c r="BZ4">
+        <v>0.6889624713587315</v>
+      </c>
+      <c r="CA4">
+        <v>0.7011627693881179</v>
+      </c>
+      <c r="CB4">
+        <v>0.7020854843194454</v>
+      </c>
+      <c r="CC4">
+        <v>0.7383163490858096</v>
+      </c>
+      <c r="CD4">
+        <v>0.7518584343650548</v>
+      </c>
+      <c r="CE4">
+        <v>0.7661490007852171</v>
+      </c>
+      <c r="CF4">
+        <v>0.7674280572214068</v>
+      </c>
+      <c r="CG4">
+        <v>0.7705813985535549</v>
+      </c>
+      <c r="CH4">
+        <v>0.7785691764383333</v>
+      </c>
+      <c r="CI4">
+        <v>0.7788281843296132</v>
+      </c>
+      <c r="CJ4">
+        <v>0.7800094838100566</v>
+      </c>
+      <c r="CK4">
+        <v>0.7807366390750314</v>
+      </c>
+      <c r="CL4">
+        <v>0.8169468021347281</v>
+      </c>
+      <c r="CM4">
+        <v>0.8244056840961983</v>
+      </c>
+      <c r="CN4">
+        <v>0.8649674091827436</v>
+      </c>
+      <c r="CO4">
+        <v>0.8724418974547996</v>
+      </c>
+      <c r="CP4">
+        <v>0.8819490101542093</v>
+      </c>
+      <c r="CQ4">
+        <v>0.8843819780570648</v>
+      </c>
+      <c r="CR4">
+        <v>0.9170998858462511</v>
+      </c>
+      <c r="CS4">
+        <v>0.9593770093639509</v>
+      </c>
+      <c r="CT4">
+        <v>0.9644592836630638</v>
+      </c>
+      <c r="CU4">
+        <v>0.9729605567225299</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0.03787938289050278</v>
+      </c>
+      <c r="BR5">
+        <v>0.1233595608416196</v>
+      </c>
+      <c r="BS5">
+        <v>0.1632959321191464</v>
+      </c>
+      <c r="BT5">
+        <v>0.1644157162150915</v>
+      </c>
+      <c r="BU5">
+        <v>0.2920946310022128</v>
+      </c>
+      <c r="BV5">
+        <v>0.4372687814840697</v>
+      </c>
+      <c r="BW5">
+        <v>0.4973209778849375</v>
+      </c>
+      <c r="BX5">
+        <v>0.4974522185262965</v>
+      </c>
+      <c r="BY5">
+        <v>0.4996211476090104</v>
+      </c>
+      <c r="BZ5">
+        <v>0.5363986187359123</v>
+      </c>
+      <c r="CA5">
+        <v>0.6677917965063266</v>
+      </c>
+      <c r="CB5">
+        <v>0.6730228109422252</v>
+      </c>
+      <c r="CC5">
+        <v>0.6811204630181663</v>
+      </c>
+      <c r="CD5">
+        <v>0.7591748194201409</v>
+      </c>
+      <c r="CE5">
+        <v>0.7641683723931235</v>
+      </c>
+      <c r="CF5">
+        <v>0.7750245726578217</v>
+      </c>
+      <c r="CG5">
+        <v>0.7786273916790756</v>
+      </c>
+      <c r="CH5">
+        <v>0.788415542744367</v>
+      </c>
+      <c r="CI5">
+        <v>0.8144918437943197</v>
+      </c>
+      <c r="CJ5">
+        <v>0.8192438483316221</v>
+      </c>
+      <c r="CK5">
+        <v>0.8192438483316221</v>
+      </c>
+      <c r="CL5">
+        <v>0.8818441950456675</v>
+      </c>
+      <c r="CM5">
+        <v>0.9000807647955102</v>
+      </c>
+      <c r="CN5">
+        <v>0.922007659417806</v>
+      </c>
+      <c r="CO5">
+        <v>0.9221998524962052</v>
+      </c>
+      <c r="CP5">
+        <v>0.9252689190330258</v>
+      </c>
+      <c r="CQ5">
+        <v>0.9291269174679148</v>
+      </c>
+      <c r="CR5">
+        <v>0.9376784529052666</v>
+      </c>
+      <c r="CS5">
+        <v>0.9771776658135517</v>
+      </c>
+      <c r="CT5">
+        <v>0.9858926578477973</v>
+      </c>
+      <c r="CU5">
+        <v>0.9962509315725442</v>
+      </c>
+      <c r="CV5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ2">
+      <c r="CW5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AK2">
+      <c r="CX5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AL2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AM2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AN2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AO2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AP2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AQ2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AR2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AS2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AT2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AU2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AV2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AW2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AX2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AY2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AZ2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BA2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BB2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BC2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BD2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BE2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BF2">
-        <v>0.9999999999999999</v>
-      </c>
     </row>
-    <row r="3" spans="1:58">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.008253629493170735</v>
-      </c>
-      <c r="H3">
-        <v>0.04088730019317922</v>
-      </c>
-      <c r="I3">
-        <v>0.09786705993006514</v>
-      </c>
-      <c r="J3">
-        <v>0.1510996029614778</v>
-      </c>
-      <c r="K3">
-        <v>0.1733756388730392</v>
-      </c>
-      <c r="L3">
-        <v>0.1739554666774385</v>
-      </c>
-      <c r="M3">
-        <v>0.1773816489640043</v>
-      </c>
-      <c r="N3">
-        <v>0.1927753054208765</v>
-      </c>
-      <c r="O3">
-        <v>0.2213627591018472</v>
-      </c>
-      <c r="P3">
-        <v>0.2597214470837386</v>
-      </c>
-      <c r="Q3">
-        <v>0.298214937291481</v>
-      </c>
-      <c r="R3">
-        <v>0.3365988815462141</v>
-      </c>
-      <c r="S3">
-        <v>0.3730785064640271</v>
-      </c>
-      <c r="T3">
-        <v>0.4092059027798515</v>
-      </c>
-      <c r="U3">
-        <v>0.4315417826476377</v>
-      </c>
-      <c r="V3">
-        <v>0.4381154956901935</v>
-      </c>
-      <c r="W3">
-        <v>0.4381154956901935</v>
-      </c>
-      <c r="X3">
-        <v>0.4468565464749591</v>
-      </c>
-      <c r="Y3">
-        <v>0.4760124096893187</v>
-      </c>
-      <c r="Z3">
-        <v>0.5305100148954824</v>
-      </c>
-      <c r="AA3">
-        <v>0.6048276209158513</v>
-      </c>
-      <c r="AB3">
-        <v>0.6887149954036127</v>
-      </c>
-      <c r="AC3">
-        <v>0.760574988886714</v>
-      </c>
-      <c r="AD3">
-        <v>0.8105989431329179</v>
-      </c>
-      <c r="AE3">
-        <v>0.8336147617736942</v>
-      </c>
-      <c r="AF3">
-        <v>0.8354911690446831</v>
-      </c>
-      <c r="AG3">
-        <v>0.8378234076083843</v>
-      </c>
-      <c r="AH3">
-        <v>0.853906542944933</v>
-      </c>
-      <c r="AI3">
-        <v>0.8874028140555695</v>
-      </c>
-      <c r="AJ3">
-        <v>0.9271885985921499</v>
-      </c>
-      <c r="AK3">
-        <v>0.9665981235022358</v>
-      </c>
-      <c r="AL3">
+    <row r="6" spans="1:102">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0.06514626363783615</v>
+      </c>
+      <c r="BR6">
+        <v>0.09313578885899917</v>
+      </c>
+      <c r="BS6">
+        <v>0.1692968794686695</v>
+      </c>
+      <c r="BT6">
+        <v>0.2052268230260669</v>
+      </c>
+      <c r="BU6">
+        <v>0.3772067845874385</v>
+      </c>
+      <c r="BV6">
+        <v>0.4512945928627233</v>
+      </c>
+      <c r="BW6">
+        <v>0.477276513392639</v>
+      </c>
+      <c r="BX6">
+        <v>0.478229603531674</v>
+      </c>
+      <c r="BY6">
+        <v>0.4788197660234592</v>
+      </c>
+      <c r="BZ6">
+        <v>0.53288676984757</v>
+      </c>
+      <c r="CA6">
+        <v>0.6094841345395726</v>
+      </c>
+      <c r="CB6">
+        <v>0.609743380051095</v>
+      </c>
+      <c r="CC6">
+        <v>0.6673333921661404</v>
+      </c>
+      <c r="CD6">
+        <v>0.7084706621344835</v>
+      </c>
+      <c r="CE6">
+        <v>0.7308432731007253</v>
+      </c>
+      <c r="CF6">
+        <v>0.7308432731007253</v>
+      </c>
+      <c r="CG6">
+        <v>0.7384443702988797</v>
+      </c>
+      <c r="CH6">
+        <v>0.7672461366818223</v>
+      </c>
+      <c r="CI6">
+        <v>0.7833321692802965</v>
+      </c>
+      <c r="CJ6">
+        <v>0.7841815735974339</v>
+      </c>
+      <c r="CK6">
+        <v>0.7865411754252284</v>
+      </c>
+      <c r="CL6">
+        <v>0.8247644788382137</v>
+      </c>
+      <c r="CM6">
+        <v>0.8247644788382137</v>
+      </c>
+      <c r="CN6">
+        <v>0.8419418051295664</v>
+      </c>
+      <c r="CO6">
+        <v>0.8599777047900647</v>
+      </c>
+      <c r="CP6">
+        <v>0.8724365416449212</v>
+      </c>
+      <c r="CQ6">
+        <v>0.8871916999063502</v>
+      </c>
+      <c r="CR6">
+        <v>0.9252293869426388</v>
+      </c>
+      <c r="CS6">
+        <v>0.9670501511181591</v>
+      </c>
+      <c r="CT6">
+        <v>0.9671068021472023</v>
+      </c>
+      <c r="CU6">
+        <v>0.9860432756242843</v>
+      </c>
+      <c r="CV6">
         <v>1</v>
       </c>
-      <c r="AM3">
+      <c r="CW6">
         <v>1</v>
       </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
-      <c r="AZ3">
-        <v>1</v>
-      </c>
-      <c r="BA3">
-        <v>1</v>
-      </c>
-      <c r="BB3">
-        <v>1</v>
-      </c>
-      <c r="BC3">
-        <v>1</v>
-      </c>
-      <c r="BD3">
-        <v>1</v>
-      </c>
-      <c r="BE3">
-        <v>1</v>
-      </c>
-      <c r="BF3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.02973153695140488</v>
-      </c>
-      <c r="K4">
-        <v>0.0834259184322968</v>
-      </c>
-      <c r="L4">
-        <v>0.1476758531919637</v>
-      </c>
-      <c r="M4">
-        <v>0.1909276059451276</v>
-      </c>
-      <c r="N4">
-        <v>0.2076999808465413</v>
-      </c>
-      <c r="O4">
-        <v>0.2129520319410375</v>
-      </c>
-      <c r="P4">
-        <v>0.2138012793721084</v>
-      </c>
-      <c r="Q4">
-        <v>0.2138012793721084</v>
-      </c>
-      <c r="R4">
-        <v>0.2154968179594192</v>
-      </c>
-      <c r="S4">
-        <v>0.2177080278401443</v>
-      </c>
-      <c r="T4">
-        <v>0.220566088025754</v>
-      </c>
-      <c r="U4">
-        <v>0.2255967616742591</v>
-      </c>
-      <c r="V4">
-        <v>0.2323714362494149</v>
-      </c>
-      <c r="W4">
-        <v>0.2392809076265667</v>
-      </c>
-      <c r="X4">
-        <v>0.2461476836997342</v>
-      </c>
-      <c r="Y4">
-        <v>0.261546166426942</v>
-      </c>
-      <c r="Z4">
-        <v>0.2768724671360268</v>
-      </c>
-      <c r="AA4">
-        <v>0.2935441356068976</v>
-      </c>
-      <c r="AB4">
-        <v>0.316048965228608</v>
-      </c>
-      <c r="AC4">
-        <v>0.3586161729543623</v>
-      </c>
-      <c r="AD4">
-        <v>0.4212144779949787</v>
-      </c>
-      <c r="AE4">
-        <v>0.5069892630257842</v>
-      </c>
-      <c r="AF4">
-        <v>0.5978463616468199</v>
-      </c>
-      <c r="AG4">
-        <v>0.671793037284397</v>
-      </c>
-      <c r="AH4">
-        <v>0.7204897313910744</v>
-      </c>
-      <c r="AI4">
-        <v>0.733267910906398</v>
-      </c>
-      <c r="AJ4">
-        <v>0.733267910906398</v>
-      </c>
-      <c r="AK4">
-        <v>0.7546643022378925</v>
-      </c>
-      <c r="AL4">
-        <v>0.8014209136015767</v>
-      </c>
-      <c r="AM4">
-        <v>0.8685136978834032</v>
-      </c>
-      <c r="AN4">
-        <v>0.941628754842498</v>
-      </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
-      <c r="AV4">
-        <v>1</v>
-      </c>
-      <c r="AW4">
-        <v>1</v>
-      </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
-      <c r="AY4">
-        <v>1</v>
-      </c>
-      <c r="AZ4">
-        <v>1</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>1</v>
-      </c>
-      <c r="BD4">
-        <v>1</v>
-      </c>
-      <c r="BE4">
-        <v>1</v>
-      </c>
-      <c r="BF4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.0465588398188824</v>
-      </c>
-      <c r="G5">
-        <v>0.1102586642842303</v>
-      </c>
-      <c r="H5">
-        <v>0.134860423802733</v>
-      </c>
-      <c r="I5">
-        <v>0.134860423802733</v>
-      </c>
-      <c r="J5">
-        <v>0.1516808223066896</v>
-      </c>
-      <c r="K5">
-        <v>0.2003561187460636</v>
-      </c>
-      <c r="L5">
-        <v>0.2630854461638147</v>
-      </c>
-      <c r="M5">
-        <v>0.3202186002186584</v>
-      </c>
-      <c r="N5">
-        <v>0.3550758037027555</v>
-      </c>
-      <c r="O5">
-        <v>0.3602343836611838</v>
-      </c>
-      <c r="P5">
-        <v>0.3602343836611838</v>
-      </c>
-      <c r="Q5">
-        <v>0.3710217810223809</v>
-      </c>
-      <c r="R5">
-        <v>0.3931246178484652</v>
-      </c>
-      <c r="S5">
-        <v>0.431972351855009</v>
-      </c>
-      <c r="T5">
-        <v>0.501664864200295</v>
-      </c>
-      <c r="U5">
-        <v>0.5794639434037759</v>
-      </c>
-      <c r="V5">
-        <v>0.6383559342368987</v>
-      </c>
-      <c r="W5">
-        <v>0.665145693219519</v>
-      </c>
-      <c r="X5">
-        <v>0.6704135215598364</v>
-      </c>
-      <c r="Y5">
-        <v>0.6704135215598364</v>
-      </c>
-      <c r="Z5">
-        <v>0.6720710027321399</v>
-      </c>
-      <c r="AA5">
-        <v>0.6889342927310022</v>
-      </c>
-      <c r="AB5">
-        <v>0.7281859786666904</v>
-      </c>
-      <c r="AC5">
-        <v>0.7780946149811667</v>
-      </c>
-      <c r="AD5">
-        <v>0.8264835748881822</v>
-      </c>
-      <c r="AE5">
-        <v>0.8689410119471059</v>
-      </c>
-      <c r="AF5">
-        <v>0.9073830008820812</v>
-      </c>
-      <c r="AG5">
-        <v>0.9439690520171129</v>
-      </c>
-      <c r="AH5">
-        <v>0.9793868856090607</v>
-      </c>
-      <c r="AI5">
-        <v>0.9975394579875612</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9975394579875612</v>
-      </c>
-      <c r="AK5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AL5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AM5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AN5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AO5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AP5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AQ5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AR5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AS5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AT5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AU5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AV5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AW5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AX5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AY5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AZ5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BA5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BB5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BC5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BD5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BE5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BF5">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0.03123187077713994</v>
-      </c>
-      <c r="AB6">
-        <v>0.07264852738592642</v>
-      </c>
-      <c r="AC6">
-        <v>0.124598445812241</v>
-      </c>
-      <c r="AD6">
-        <v>0.1770127227889095</v>
-      </c>
-      <c r="AE6">
-        <v>0.2039080249388504</v>
-      </c>
-      <c r="AF6">
-        <v>0.209939193222187</v>
-      </c>
-      <c r="AG6">
-        <v>0.209939193222187</v>
-      </c>
-      <c r="AH6">
-        <v>0.2103619079601342</v>
-      </c>
-      <c r="AI6">
-        <v>0.213896766294293</v>
-      </c>
-      <c r="AJ6">
-        <v>0.2243390185981038</v>
-      </c>
-      <c r="AK6">
-        <v>0.2492854905105511</v>
-      </c>
-      <c r="AL6">
-        <v>0.2910205440138907</v>
-      </c>
-      <c r="AM6">
-        <v>0.3552112692989236</v>
-      </c>
-      <c r="AN6">
-        <v>0.3765865296505254</v>
-      </c>
-      <c r="AO6">
-        <v>0.3765865296505254</v>
-      </c>
-      <c r="AP6">
-        <v>0.3858234681302208</v>
-      </c>
-      <c r="AQ6">
-        <v>0.3932800294521582</v>
-      </c>
-      <c r="AR6">
-        <v>0.4010718729719209</v>
-      </c>
-      <c r="AS6">
-        <v>0.4195751298251696</v>
-      </c>
-      <c r="AT6">
-        <v>0.4751662685319736</v>
-      </c>
-      <c r="AU6">
-        <v>0.5876495161947981</v>
-      </c>
-      <c r="AV6">
-        <v>0.6874195760864924</v>
-      </c>
-      <c r="AW6">
-        <v>0.7187992515231274</v>
-      </c>
-      <c r="AX6">
-        <v>0.7187992515231274</v>
-      </c>
-      <c r="AY6">
-        <v>0.744875238966372</v>
-      </c>
-      <c r="AZ6">
-        <v>0.8002459989176304</v>
-      </c>
-      <c r="BA6">
-        <v>0.8538273209118188</v>
-      </c>
-      <c r="BB6">
-        <v>0.9010218767197314</v>
-      </c>
-      <c r="BC6">
-        <v>0.9458166404700988</v>
-      </c>
-      <c r="BD6">
-        <v>0.9775899793774473</v>
-      </c>
-      <c r="BE6">
-        <v>0.9925445165174646</v>
-      </c>
-      <c r="BF6">
+      <c r="CX6">
         <v>1</v>
       </c>
     </row>
@@ -2774,57 +4487,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -2833,243 +4546,228 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0.02775465335745482</v>
+        <v>0.1918440059828246</v>
       </c>
       <c r="F2">
-        <v>0.5119667704082539</v>
+        <v>0.5232135375467291</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L2">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>0.04088730019317922</v>
+        <v>0.09644353524531164</v>
       </c>
       <c r="F3">
-        <v>0.5305100148954824</v>
+        <v>0.6105442000457209</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L3">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E4">
-        <v>0.02973153695140488</v>
+        <v>0.1107653400336366</v>
       </c>
       <c r="F4">
-        <v>0.5069892630257842</v>
+        <v>0.517676852730743</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L4">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>0.0465588398188824</v>
+        <v>0.1233595608416196</v>
       </c>
       <c r="F5">
-        <v>0.501664864200295</v>
+        <v>0.5363986187359123</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L5">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E6">
-        <v>0.03123187077713994</v>
+        <v>0.09313578885899917</v>
       </c>
       <c r="F6">
-        <v>0.5876495161947981</v>
+        <v>0.53288676984757</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L6">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3087,57 +4785,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -3146,243 +4844,228 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.02775465335745482</v>
+        <v>0.1918440059828246</v>
       </c>
       <c r="F2">
-        <v>0.7526920397156145</v>
+        <v>0.7015984888873383</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L2">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E3">
-        <v>0.04088730019317922</v>
+        <v>0.09644353524531164</v>
       </c>
       <c r="F3">
-        <v>0.760574988886714</v>
+        <v>0.722052003971604</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L3">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>0.1107653400336366</v>
+      </c>
+      <c r="F4">
+        <v>0.7011627693881179</v>
+      </c>
+      <c r="G4">
         <v>9</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>0.02973153695140488</v>
-      </c>
-      <c r="F4">
-        <v>0.7204897313910744</v>
-      </c>
-      <c r="G4">
-        <v>24</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L4">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E5">
-        <v>0.0465588398188824</v>
+        <v>0.1233595608416196</v>
       </c>
       <c r="F5">
-        <v>0.7281859786666904</v>
+        <v>0.7591748194201409</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L5">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E6">
-        <v>0.03123187077713994</v>
+        <v>0.09313578885899917</v>
       </c>
       <c r="F6">
-        <v>0.7187992515231274</v>
+        <v>0.7084706621344835</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L6">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3400,57 +5083,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -3459,243 +5142,228 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.02775465335745482</v>
+        <v>0.1918440059828246</v>
       </c>
       <c r="F2">
-        <v>0.8693812049221754</v>
+        <v>0.827733820254184</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L2">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.04088730019317922</v>
+        <v>0.09644353524531164</v>
       </c>
       <c r="F3">
-        <v>0.8105989431329179</v>
+        <v>0.8089878291775744</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L3">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="E4">
-        <v>0.02973153695140488</v>
+        <v>0.1107653400336366</v>
       </c>
       <c r="F4">
-        <v>0.8014209136015767</v>
+        <v>0.8169468021347281</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L4">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E5">
-        <v>0.0465588398188824</v>
+        <v>0.1233595608416196</v>
       </c>
       <c r="F5">
-        <v>0.8264835748881822</v>
+        <v>0.8144918437943197</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L5">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>0.03123187077713994</v>
+        <v>0.09313578885899917</v>
       </c>
       <c r="F6">
-        <v>0.8002459989176304</v>
+        <v>0.8247644788382137</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L6">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3713,57 +5381,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -3775,10 +5443,10 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>0.02775465335745482</v>
+        <v>0.1918440059828246</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G2">
         <v>31</v>
@@ -3787,48 +5455,45 @@
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L2">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>0.04088730019317922</v>
+        <v>0.09644353524531164</v>
       </c>
       <c r="F3">
-        <v>0.9271885985921499</v>
+        <v>0.9017158695924655</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -3837,178 +5502,166 @@
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L3">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>0.02973153695140488</v>
+        <v>0.1107653400336366</v>
       </c>
       <c r="F4">
-        <v>0.941628754842498</v>
+        <v>0.9170998858462511</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L4">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>0.0465588398188824</v>
+        <v>0.1233595608416196</v>
       </c>
       <c r="F5">
-        <v>0.9073830008820812</v>
+        <v>0.9000807647955102</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L5">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>0.09313578885899917</v>
+      </c>
+      <c r="F6">
+        <v>0.9252293869426388</v>
+      </c>
+      <c r="G6">
         <v>26</v>
-      </c>
-      <c r="D6">
-        <v>53</v>
-      </c>
-      <c r="E6">
-        <v>0.03123187077713994</v>
-      </c>
-      <c r="F6">
-        <v>0.9010218767197314</v>
-      </c>
-      <c r="G6">
-        <v>27</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="L6">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
